--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.64620676223757</v>
+        <v>93.34389123284849</v>
       </c>
       <c r="D2" t="n">
-        <v>8.734255487635485</v>
+        <v>8.716149339900275</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.7165506181264</v>
+        <v>93.03938549611088</v>
       </c>
       <c r="D3" t="n">
-        <v>9.644787945386661</v>
+        <v>9.335026955757979</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.14850715891654</v>
+        <v>92.2302493608113</v>
       </c>
       <c r="D4" t="n">
-        <v>10.55657997514629</v>
+        <v>8.566570914618064</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.94200094957655</v>
+        <v>89.46073994551223</v>
       </c>
       <c r="D5" t="n">
-        <v>9.478123319360144</v>
+        <v>10.15468265157603</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.06775406406896</v>
+        <v>89.01545977126742</v>
       </c>
       <c r="D6" t="n">
-        <v>9.202786557418923</v>
+        <v>8.879130582805969</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.03272678746714</v>
+        <v>88.90665761314233</v>
       </c>
       <c r="D7" t="n">
-        <v>9.344594808534769</v>
+        <v>9.293223481045167</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.25282361311012</v>
+        <v>87.13993811725207</v>
       </c>
       <c r="D8" t="n">
-        <v>10.0276631937644</v>
+        <v>9.067651104181358</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.12469728924896</v>
+        <v>84.33632074542203</v>
       </c>
       <c r="D9" t="n">
-        <v>8.926916184473544</v>
+        <v>9.072671672991786</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.83985341650006</v>
+        <v>84.36271990298</v>
       </c>
       <c r="D10" t="n">
-        <v>9.581121231502012</v>
+        <v>10.01890749208964</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.55845339031417</v>
+        <v>83.40276636465742</v>
       </c>
       <c r="D11" t="n">
-        <v>9.239181368238269</v>
+        <v>9.158733494145801</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.00785686122781</v>
+        <v>82.03232498634678</v>
       </c>
       <c r="D12" t="n">
-        <v>11.58650367450316</v>
+        <v>8.500158803416337</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.61293524431562</v>
+        <v>80.54209909368281</v>
       </c>
       <c r="D13" t="n">
-        <v>10.45555157596313</v>
+        <v>9.501987387374369</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.44461926432831</v>
+        <v>79.7300777212518</v>
       </c>
       <c r="D14" t="n">
-        <v>8.844492037963425</v>
+        <v>9.282015532821903</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.80850665631327</v>
+        <v>80.23869950177078</v>
       </c>
       <c r="D15" t="n">
-        <v>9.575235344912201</v>
+        <v>9.417909257851559</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.70813205464768</v>
+        <v>78.8600406590228</v>
       </c>
       <c r="D16" t="n">
-        <v>9.65256867185372</v>
+        <v>8.095776922009771</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.35011399356142</v>
+        <v>76.08707878706096</v>
       </c>
       <c r="D17" t="n">
-        <v>9.158805672814998</v>
+        <v>9.167821964246704</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.49794630007955</v>
+        <v>76.97038467074046</v>
       </c>
       <c r="D18" t="n">
-        <v>10.26650585148875</v>
+        <v>9.005033178800627</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.55534854437525</v>
+        <v>76.00298716503504</v>
       </c>
       <c r="D19" t="n">
-        <v>9.280949546602479</v>
+        <v>9.075728968522856</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.79818297692975</v>
+        <v>71.11990211734823</v>
       </c>
       <c r="D20" t="n">
-        <v>10.00253384912858</v>
+        <v>8.473724673400968</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.51293972027619</v>
+        <v>74.28557869669345</v>
       </c>
       <c r="D21" t="n">
-        <v>9.354432616704992</v>
+        <v>8.886114128009984</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.01198314508224</v>
+        <v>71.32978363607911</v>
       </c>
       <c r="D22" t="n">
-        <v>9.521886395047114</v>
+        <v>8.48604601316787</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.55967735200139</v>
+        <v>72.13852304784288</v>
       </c>
       <c r="D23" t="n">
-        <v>9.053842911862702</v>
+        <v>8.136156833934395</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.80641525942838</v>
+        <v>69.74422773075632</v>
       </c>
       <c r="D24" t="n">
-        <v>8.539695832135825</v>
+        <v>8.8368637149213</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.24609380378456</v>
+        <v>67.14838807602145</v>
       </c>
       <c r="D25" t="n">
-        <v>11.06246060856426</v>
+        <v>9.004518353374863</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.28485341852902</v>
+        <v>67.52865300492967</v>
       </c>
       <c r="D26" t="n">
-        <v>9.178160900867063</v>
+        <v>9.128513603973872</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.31376598280413</v>
+        <v>68.82574782695445</v>
       </c>
       <c r="D27" t="n">
-        <v>9.258849845068069</v>
+        <v>10.09915623341547</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.43073460539107</v>
+        <v>65.75482635775371</v>
       </c>
       <c r="D28" t="n">
-        <v>9.325628971498549</v>
+        <v>7.860387610167241</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.5050855707303</v>
+        <v>64.26041713462362</v>
       </c>
       <c r="D29" t="n">
-        <v>10.080555316763</v>
+        <v>8.8658978259396</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.86350442988523</v>
+        <v>64.05457947313786</v>
       </c>
       <c r="D30" t="n">
-        <v>10.32913582125794</v>
+        <v>8.681929417718846</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.42240108599302</v>
+        <v>62.47616350319446</v>
       </c>
       <c r="D31" t="n">
-        <v>8.458970370926426</v>
+        <v>9.093852454049818</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.48372863278981</v>
+        <v>60.9314709807792</v>
       </c>
       <c r="D32" t="n">
-        <v>9.147173077693457</v>
+        <v>9.654482435090312</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.60563520164182</v>
+        <v>62.33091100059353</v>
       </c>
       <c r="D33" t="n">
-        <v>10.81818566158438</v>
+        <v>8.587716924101436</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.33248206144017</v>
+        <v>59.30684472227163</v>
       </c>
       <c r="D34" t="n">
-        <v>9.407896410546588</v>
+        <v>8.329339936885297</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.99321902459031</v>
+        <v>57.08610804407038</v>
       </c>
       <c r="D35" t="n">
-        <v>9.690460285328061</v>
+        <v>8.673525445415667</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.20093805349811</v>
+        <v>56.82996073012665</v>
       </c>
       <c r="D36" t="n">
-        <v>10.24570479499351</v>
+        <v>9.536894389758082</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.69336719720953</v>
+        <v>56.00819156550487</v>
       </c>
       <c r="D37" t="n">
-        <v>9.095433772965304</v>
+        <v>10.18018548952857</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.70639462505276</v>
+        <v>54.81679483874678</v>
       </c>
       <c r="D38" t="n">
-        <v>9.782160649053891</v>
+        <v>9.586730854927321</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.24658130352395</v>
+        <v>53.45634549570461</v>
       </c>
       <c r="D39" t="n">
-        <v>10.12745521077936</v>
+        <v>9.462809659400921</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.38857910296523</v>
+        <v>52.71338412765635</v>
       </c>
       <c r="D40" t="n">
-        <v>8.291631072159543</v>
+        <v>10.9408014556045</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8924020058695</v>
+        <v>51.74909580152312</v>
       </c>
       <c r="D41" t="n">
-        <v>10.73137461358957</v>
+        <v>9.231787706290399</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.47754325396026</v>
+        <v>49.3287530043238</v>
       </c>
       <c r="D42" t="n">
-        <v>9.449215542620292</v>
+        <v>8.618454080116075</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.47955346577979</v>
+        <v>50.14892050330831</v>
       </c>
       <c r="D43" t="n">
-        <v>9.798708641627229</v>
+        <v>8.694407881285555</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.78378570953799</v>
+        <v>47.4347659739648</v>
       </c>
       <c r="D44" t="n">
-        <v>9.374791967897071</v>
+        <v>9.356614681196161</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.32759243143882</v>
+        <v>46.69386839467168</v>
       </c>
       <c r="D45" t="n">
-        <v>8.962103291034955</v>
+        <v>9.228198145712204</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.30521343715097</v>
+        <v>47.3812794192505</v>
       </c>
       <c r="D46" t="n">
-        <v>8.03448271587202</v>
+        <v>8.456074101029484</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.3943153212884</v>
+        <v>45.20086124941413</v>
       </c>
       <c r="D47" t="n">
-        <v>10.25191126171285</v>
+        <v>9.200018560867514</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.25689113506597</v>
+        <v>45.6726116345074</v>
       </c>
       <c r="D48" t="n">
-        <v>9.182052415760809</v>
+        <v>7.596974546560386</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.10245523270459</v>
+        <v>42.4647420178924</v>
       </c>
       <c r="D49" t="n">
-        <v>9.83078742202966</v>
+        <v>9.59146761195125</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.76103120994803</v>
+        <v>42.55896990318202</v>
       </c>
       <c r="D50" t="n">
-        <v>8.362497650462615</v>
+        <v>10.34264909664145</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.4016311837364</v>
+        <v>40.36495261436917</v>
       </c>
       <c r="D51" t="n">
-        <v>9.923326291155661</v>
+        <v>8.901700867353416</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.50401395891004</v>
+        <v>41.40598437134589</v>
       </c>
       <c r="D52" t="n">
-        <v>8.588506595376069</v>
+        <v>8.721737233010153</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.56204669099182</v>
+        <v>39.96894122379346</v>
       </c>
       <c r="D53" t="n">
-        <v>8.330921967453133</v>
+        <v>8.721362891123785</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.13552498403141</v>
+        <v>38.36677476601739</v>
       </c>
       <c r="D54" t="n">
-        <v>7.914349747460783</v>
+        <v>8.405899394988134</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.09930538563414</v>
+        <v>35.36296561620316</v>
       </c>
       <c r="D55" t="n">
-        <v>9.224928605632304</v>
+        <v>8.742337034914506</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9479568722838</v>
+        <v>35.18765490881806</v>
       </c>
       <c r="D56" t="n">
-        <v>9.064824549876247</v>
+        <v>10.30188217257367</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.15323072425424</v>
+        <v>34.37764354764375</v>
       </c>
       <c r="D57" t="n">
-        <v>8.477779971972662</v>
+        <v>8.068726565075563</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.69930616908719</v>
+        <v>33.81100283361413</v>
       </c>
       <c r="D58" t="n">
-        <v>8.846982042452947</v>
+        <v>8.826644598079739</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.33297820379058</v>
+        <v>31.94330100857388</v>
       </c>
       <c r="D59" t="n">
-        <v>9.310900847898104</v>
+        <v>9.440538630207909</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.35661416072578</v>
+        <v>32.34801367208832</v>
       </c>
       <c r="D60" t="n">
-        <v>8.865045540895963</v>
+        <v>9.083764342306617</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.83528613079459</v>
+        <v>30.18516036787491</v>
       </c>
       <c r="D61" t="n">
-        <v>9.684743850972589</v>
+        <v>8.770598310778148</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.87447101530015</v>
+        <v>28.78905622475377</v>
       </c>
       <c r="D62" t="n">
-        <v>8.608552648057296</v>
+        <v>9.408668754178283</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.34721223784877</v>
+        <v>30.69692416755559</v>
       </c>
       <c r="D63" t="n">
-        <v>9.499505020320814</v>
+        <v>8.691768660373679</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.68752554784846</v>
+        <v>28.60401745016197</v>
       </c>
       <c r="D64" t="n">
-        <v>9.190676307922608</v>
+        <v>8.50305575434875</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.94011725617739</v>
+        <v>25.83419365349267</v>
       </c>
       <c r="D65" t="n">
-        <v>8.749756392178954</v>
+        <v>9.04837242816331</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.81294328564757</v>
+        <v>25.5617684413683</v>
       </c>
       <c r="D66" t="n">
-        <v>7.541743398937887</v>
+        <v>9.650830657115694</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.6597182907881</v>
+        <v>25.74246176105396</v>
       </c>
       <c r="D67" t="n">
-        <v>9.373381487395354</v>
+        <v>8.988233053840309</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.16809139020346</v>
+        <v>24.07964035404208</v>
       </c>
       <c r="D68" t="n">
-        <v>8.196480493094288</v>
+        <v>9.465455844293285</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.81213893951215</v>
+        <v>22.96543637588436</v>
       </c>
       <c r="D69" t="n">
-        <v>9.53823441620554</v>
+        <v>8.452825800836328</v>
       </c>
     </row>
   </sheetData>
